--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\MarketAnalysis_CrowdFunding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="499">
   <si>
     <t>Company</t>
   </si>
@@ -1745,12 +1745,36 @@
     <t>https://fitsmallbusiness.com/best-real-estate-crowdfunding-sites/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Tier 1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier 2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier 3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier 4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier 5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1829,13 +1853,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="2"/>
       <name val="DengXian"/>
@@ -1875,6 +1892,54 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2072,7 +2137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2086,182 +2151,197 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2549,1026 +2629,1052 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="55.375" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="48.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="55.375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="C76" s="8" t="s">
+      <c r="A76" s="65" t="s">
+        <v>493</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="D77" s="9" t="s">
+      <c r="A77" s="66" t="s">
+        <v>494</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="67" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="68" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="70" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -3652,1451 +3758,1451 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="37" style="19" customWidth="1"/>
-    <col min="3" max="3" width="47.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="47.875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="17"/>
-    <col min="9" max="9" width="40.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="17"/>
-    <col min="11" max="11" width="42.625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="12"/>
-    <col min="13" max="13" width="45.5" style="18" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="17"/>
-    <col min="15" max="15" width="28.5" style="16" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="15"/>
-    <col min="17" max="17" width="27.125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="13"/>
-    <col min="19" max="16384" width="10.875" style="12"/>
+    <col min="1" max="1" width="15.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="37" style="17" customWidth="1"/>
+    <col min="3" max="3" width="47.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="47.875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="15"/>
+    <col min="9" max="9" width="40.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="15"/>
+    <col min="11" max="11" width="42.625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="10"/>
+    <col min="13" max="13" width="45.5" style="16" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="15"/>
+    <col min="15" max="15" width="28.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="13"/>
+    <col min="17" max="17" width="27.125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="11"/>
+    <col min="19" max="16384" width="10.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B1" s="21"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="41"/>
-    </row>
-    <row r="2" spans="1:18" s="44" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="1:18" s="18" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B1" s="19"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="19"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="36"/>
+    </row>
+    <row r="2" spans="1:18" s="38" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="51" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="48" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="46" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="40" t="s">
         <v>484</v>
       </c>
-      <c r="R2" s="45"/>
+      <c r="R2" s="39"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q3" s="14" t="s">
+      <c r="P3" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="78.75">
-      <c r="A4" s="58"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="M4" s="18" t="s">
+      <c r="L4" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="O4" s="16" t="s">
+      <c r="N4" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="31.5">
-      <c r="A5" s="58"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="M5" s="18" t="s">
+      <c r="L5" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="N5" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="31.5">
-      <c r="A6" s="58"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="J6" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="L6" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="M6" s="18" t="s">
+      <c r="L6" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="O6" s="16" t="s">
+      <c r="N6" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+      <c r="P6" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="31.5">
-      <c r="A7" s="58"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="J7" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="M7" s="18" t="s">
+      <c r="L7" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="N7" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="O7" s="16" t="s">
+      <c r="N7" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="P7" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="58"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K8" s="19" t="s">
+      <c r="J8" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="M8" s="18" t="s">
+      <c r="L8" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="O8" s="16" t="s">
+      <c r="N8" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q8" s="14" t="s">
+      <c r="P8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="58"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="O9" s="16" t="s">
+      <c r="J9" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q9" s="14" t="s">
+      <c r="P9" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q9" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="58"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="O10" s="16" t="s">
+      <c r="J10" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="O10" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="R10" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="22" customFormat="1">
+      <c r="R10" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="20" customFormat="1">
       <c r="A11" s="60"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28" t="s">
+      <c r="F11" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="26" t="s">
+      <c r="J11" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="P11" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q11" s="24" t="s">
+      <c r="P11" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q11" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="21" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="16" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="31.5">
-      <c r="A13" s="58"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="16" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="58"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="16" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="58"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="58"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="58"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="22" customFormat="1" ht="63">
+    <row r="18" spans="1:18" s="20" customFormat="1" ht="63">
       <c r="A18" s="60"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="29" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="25"/>
+      <c r="I18" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="29" t="s">
+      <c r="J18" s="25"/>
+      <c r="K18" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="23"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="58"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="58"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="Q21" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="58"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="12" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="58"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q23" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="58"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="58"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="N25" s="57" t="s">
+      <c r="N25" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="53"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="47"/>
     </row>
     <row r="26" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="53"/>
-    </row>
-    <row r="27" spans="1:18" s="44" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="51" t="s">
+      <c r="P26" s="14"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="47"/>
+    </row>
+    <row r="27" spans="1:18" s="38" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="C27" s="50" t="str">
+      <c r="C27" s="44" t="str">
         <f>C2</f>
         <v>房地产置业产品</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="51" t="str">
+      <c r="D27" s="43"/>
+      <c r="E27" s="45" t="str">
         <f>E2</f>
         <v>房地产金融产品</v>
       </c>
-      <c r="G27" s="50" t="str">
+      <c r="G27" s="44" t="str">
         <f>G2</f>
         <v>房地产配套服务</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50" t="str">
+      <c r="H27" s="43"/>
+      <c r="I27" s="44" t="str">
         <f>I2</f>
         <v>移民</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="51" t="str">
+      <c r="J27" s="43"/>
+      <c r="K27" s="45" t="str">
         <f>K2</f>
         <v>教育</v>
       </c>
-      <c r="M27" s="50" t="str">
+      <c r="M27" s="44" t="str">
         <f>M2</f>
         <v>保险</v>
       </c>
-      <c r="N27" s="49"/>
-      <c r="O27" s="48" t="s">
+      <c r="N27" s="43"/>
+      <c r="O27" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="45"/>
-    </row>
-    <row r="28" spans="1:18" s="20" customFormat="1">
-      <c r="A28" s="43" t="s">
+      <c r="P27" s="41"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="39"/>
+    </row>
+    <row r="28" spans="1:18" s="18" customFormat="1">
+      <c r="A28" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="21"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" s="20" customFormat="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="42" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="19"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" s="18" customFormat="1">
+      <c r="A29" s="56"/>
+      <c r="B29" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="21"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" s="20" customFormat="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="42" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="19"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" s="18" customFormat="1">
+      <c r="A30" s="56"/>
+      <c r="B30" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E30" s="21" t="s">
+      <c r="D30" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="21" t="s">
+      <c r="J30" s="15"/>
+      <c r="K30" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" s="20" customFormat="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="42" t="s">
+      <c r="N30" s="15"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" s="18" customFormat="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="19"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="20"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="13"/>
+      <c r="D32" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="18"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="33"/>
-      <c r="B33" s="32" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="20"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="13"/>
+      <c r="D33" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="18"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32" t="s">
+      <c r="A34" s="56"/>
+      <c r="B34" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="20"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="13"/>
-    </row>
-    <row r="35" spans="1:18" s="22" customFormat="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="40" t="s">
+      <c r="D34" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="18"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" s="20" customFormat="1">
+      <c r="A35" s="57"/>
+      <c r="B35" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="27" t="s">
+      <c r="C35" s="33"/>
+      <c r="D35" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="39"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="23"/>
+      <c r="E35" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="34"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="21"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="20"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="13"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="18"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="33"/>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="20"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="13"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="18"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="33"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="56"/>
+      <c r="B38" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="20"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:18" s="22" customFormat="1" ht="47.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="29" t="s">
+      <c r="K38" s="19"/>
+      <c r="L38" s="18"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:18" s="20" customFormat="1" ht="47.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="29"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="23"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="21"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="20"/>
-      <c r="O40" s="34" t="s">
+      <c r="K40" s="19"/>
+      <c r="L40" s="18"/>
+      <c r="O40" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="Q40" s="14" t="s">
+      <c r="Q40" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="31.5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="20"/>
-      <c r="O41" s="34" t="s">
+      <c r="K41" s="19"/>
+      <c r="L41" s="18"/>
+      <c r="O41" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q41" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="33"/>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="20"/>
-      <c r="O42" s="34" t="s">
+      <c r="K42" s="19"/>
+      <c r="L42" s="18"/>
+      <c r="O42" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="P42" s="13" t="s">
+      <c r="P42" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="Q42" s="14" t="s">
+      <c r="Q42" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="R42" s="13" t="s">
+      <c r="R42" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="33"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="20"/>
-      <c r="O43" s="34" t="s">
+      <c r="K43" s="19"/>
+      <c r="L43" s="18"/>
+      <c r="O43" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="P43" s="13" t="s">
+      <c r="P43" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="Q43" s="14" t="s">
+      <c r="Q43" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="R43" s="13" t="s">
+      <c r="R43" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="33"/>
-      <c r="B44" s="32" t="s">
+      <c r="A44" s="56"/>
+      <c r="B44" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="15" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="22" customFormat="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30" t="s">
+    <row r="45" spans="1:18" s="20" customFormat="1">
+      <c r="A45" s="57"/>
+      <c r="B45" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="29"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="23"/>
+      <c r="E45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5129,10 +5235,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="20.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="4" spans="2:4" s="2" customFormat="1">
       <c r="B4" s="1">
@@ -5375,10 +5481,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:6" ht="20.25">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="4" spans="4:6">
       <c r="D4" s="4">
@@ -5708,10 +5814,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="20.25">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="4">
@@ -6222,6 +6328,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -13,12 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="70 crowdfunding sites" sheetId="4" r:id="rId1"/>
-    <sheet name="Visitor_view" sheetId="5" r:id="rId2"/>
-    <sheet name="General" sheetId="1" r:id="rId3"/>
-    <sheet name="Bridge or Mezz Loan" sheetId="2" r:id="rId4"/>
-    <sheet name="Acquisition" sheetId="3" r:id="rId5"/>
+    <sheet name="Grading criteria" sheetId="7" r:id="rId2"/>
+    <sheet name="Visitor_view" sheetId="5" r:id="rId3"/>
+    <sheet name="General" sheetId="1" r:id="rId4"/>
+    <sheet name="Bridge or Mezz Loan" sheetId="2" r:id="rId5"/>
+    <sheet name="Acquisition" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="501">
   <si>
     <t>Company</t>
   </si>
@@ -390,10 +391,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Loan</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.fastfundingservice.com/real/?gclid=Cj0KCQjw1q3VBRCFARIsAPHJXrHuDbdu9q9WH2uGk3Aw70xb-kgTy-M7YWfcW3kGNVzdbPwNXT6390gaAkugEALw_wcB</t>
   </si>
   <si>
@@ -409,13 +406,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.goodwinlaw.com/services/industries/crowdfunding</t>
-  </si>
-  <si>
-    <t>Goodwin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Residential portfolio</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -597,9 +587,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>massventure</t>
-  </si>
-  <si>
     <t>?(not safe, might be fraud)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1139,14 +1126,6 @@
   </si>
   <si>
     <t>DiversyFund</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1768,6 +1747,36 @@
   <si>
     <t>Unknown</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.breit.com/</t>
+  </si>
+  <si>
+    <t>Blackstone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial raise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.therealestatecrowdfundingreview.com/top-14-nonaccredited-realestate</t>
+  </si>
+  <si>
+    <t>massventure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2295,6 +2304,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2324,24 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2629,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2646,1042 +2655,1060 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>315</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="68" t="s">
-        <v>314</v>
+      <c r="A2" s="58" t="s">
+        <v>310</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="67" t="s">
-        <v>311</v>
+      <c r="A3" s="57" t="s">
+        <v>307</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="65" t="s">
-        <v>307</v>
+      <c r="A4" s="55" t="s">
+        <v>303</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="65" t="s">
-        <v>303</v>
+      <c r="A6" s="55" t="s">
+        <v>299</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="65" t="s">
-        <v>300</v>
+      <c r="A7" s="55" t="s">
+        <v>296</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="65" t="s">
-        <v>298</v>
+      <c r="A8" s="55" t="s">
+        <v>294</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B42" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="7" t="s">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="D43" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="7" t="s">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="70" t="s">
-        <v>163</v>
+      <c r="A56" s="60" t="s">
+        <v>160</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="70" t="s">
-        <v>161</v>
+      <c r="A57" s="60" t="s">
+        <v>158</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="70" t="s">
-        <v>159</v>
+      <c r="A58" s="60" t="s">
+        <v>156</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="70" t="s">
-        <v>154</v>
+      <c r="A60" s="60" t="s">
+        <v>151</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="70" t="s">
-        <v>151</v>
+      <c r="A61" s="60" t="s">
+        <v>148</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="70" t="s">
-        <v>149</v>
+      <c r="A62" s="60" t="s">
+        <v>146</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="70" t="s">
-        <v>145</v>
+      <c r="A63" s="60" t="s">
+        <v>142</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="70" t="s">
-        <v>143</v>
+      <c r="A64" s="60" t="s">
+        <v>140</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="7" t="s">
-        <v>120</v>
+      <c r="A71" s="55" t="s">
+        <v>494</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>119</v>
+        <v>493</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>118</v>
+        <v>495</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="66" t="s">
-        <v>494</v>
-      </c>
-      <c r="D77" s="8" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="7" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="67" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="68" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="70" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="D76" r:id="rId2"/>
+    <hyperlink ref="D81" r:id="rId2"/>
     <hyperlink ref="B20" r:id="rId3"/>
     <hyperlink ref="B22" r:id="rId4"/>
     <hyperlink ref="B23" r:id="rId5"/>
@@ -3738,7 +3765,7 @@
     <hyperlink ref="B65" r:id="rId56"/>
     <hyperlink ref="B66" r:id="rId57"/>
     <hyperlink ref="B67" r:id="rId58"/>
-    <hyperlink ref="D77" r:id="rId59"/>
+    <hyperlink ref="D82" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId60"/>
@@ -3746,6 +3773,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
@@ -3799,617 +3845,617 @@
     <row r="2" spans="1:18" s="38" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="46"/>
       <c r="B2" s="45" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="45" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="44" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J2" s="43"/>
       <c r="K2" s="45" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N2" s="43"/>
       <c r="O2" s="42" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="40" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="R2" s="39"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="58" t="s">
-        <v>483</v>
+      <c r="A3" s="64" t="s">
+        <v>477</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="78.75">
-      <c r="A4" s="59"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="31.5">
-      <c r="A5" s="59"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>467</v>
-      </c>
       <c r="J5" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="31.5">
-      <c r="A6" s="59"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="17" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="31.5">
-      <c r="A7" s="59"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="59"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K8" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>438</v>
-      </c>
       <c r="P8" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="59"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="17" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="59"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L10" s="18"/>
       <c r="O10" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="20" customFormat="1">
-      <c r="A11" s="60"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="27" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K11" s="27"/>
       <c r="M11" s="26"/>
       <c r="N11" s="25"/>
       <c r="O11" s="24" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="61" t="s">
-        <v>416</v>
+      <c r="A12" s="67" t="s">
+        <v>410</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="31.5">
-      <c r="A13" s="59"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="17" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="59"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="17" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="59"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="59"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="59"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="20" customFormat="1" ht="63">
-      <c r="A18" s="60"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="27" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="26" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="27" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="24"/>
@@ -4418,407 +4464,407 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="61" t="s">
-        <v>387</v>
+      <c r="A19" s="67" t="s">
+        <v>381</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="59"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="17" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="59"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="17" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I21" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q21" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="R21" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="59"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="17" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="59"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="17" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="59"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="59"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J25" s="50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N25" s="50" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="47"/>
     </row>
     <row r="26" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="19" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="48"/>
@@ -4827,7 +4873,7 @@
     <row r="27" spans="1:18" s="38" customFormat="1" ht="16.5" thickBot="1">
       <c r="A27" s="46"/>
       <c r="B27" s="45" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C27" s="44" t="str">
         <f>C2</f>
@@ -4858,22 +4904,22 @@
       </c>
       <c r="N27" s="43"/>
       <c r="O27" s="42" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
     </row>
     <row r="28" spans="1:18" s="18" customFormat="1">
-      <c r="A28" s="63" t="s">
-        <v>351</v>
+      <c r="A28" s="69" t="s">
+        <v>345</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E28" s="19"/>
       <c r="G28" s="16"/>
@@ -4889,13 +4935,13 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" s="18" customFormat="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="37" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E29" s="19"/>
       <c r="G29" s="16"/>
@@ -4911,32 +4957,32 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" s="18" customFormat="1">
-      <c r="A30" s="56"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="37" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="16" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="19" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" s="30"/>
@@ -4945,13 +4991,13 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" s="18" customFormat="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="37" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E31" s="19"/>
       <c r="G31" s="16"/>
@@ -4967,12 +5013,12 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="56"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="29" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="18"/>
@@ -4980,12 +5026,12 @@
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="56"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="29" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="18"/>
@@ -4993,12 +5039,12 @@
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="56"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="29" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="18"/>
@@ -5006,13 +5052,13 @@
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:18" s="20" customFormat="1">
-      <c r="A35" s="57"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="35" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="25" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E35" s="34"/>
       <c r="G35" s="33"/>
@@ -5028,11 +5074,11 @@
       <c r="R35" s="21"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="55" t="s">
-        <v>335</v>
+      <c r="A36" s="61" t="s">
+        <v>329</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K36" s="19"/>
       <c r="L36" s="18"/>
@@ -5040,9 +5086,9 @@
       <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="56"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="19" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="18"/>
@@ -5050,9 +5096,9 @@
       <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="56"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="19" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="18"/>
@@ -5060,9 +5106,9 @@
       <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:18" s="20" customFormat="1" ht="47.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="27" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="25"/>
@@ -5080,116 +5126,116 @@
       <c r="R39" s="21"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="55" t="s">
-        <v>330</v>
+      <c r="A40" s="61" t="s">
+        <v>324</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="18"/>
       <c r="O40" s="30" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="31.5">
-      <c r="A41" s="56"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="18"/>
       <c r="O41" s="30" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P41" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q41" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="Q41" s="12" t="s">
-        <v>325</v>
-      </c>
       <c r="R41" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="56"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="29" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="18"/>
       <c r="O42" s="30" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="56"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="29" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="18"/>
       <c r="O43" s="30" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="56"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="20" customFormat="1">
-      <c r="A45" s="57"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="28" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E45" s="27"/>
       <c r="G45" s="26"/>
@@ -5219,7 +5265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
@@ -5235,10 +5281,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="20.25">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="4" spans="2:4" s="2" customFormat="1">
       <c r="B4" s="1">
@@ -5465,7 +5511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F79"/>
   <sheetViews>
@@ -5481,10 +5527,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:6" ht="20.25">
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="4" spans="4:6">
       <c r="D4" s="4">
@@ -5798,7 +5844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E80"/>
   <sheetViews>
@@ -5814,10 +5860,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="20.25">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="4">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\MarketAnalysis_CrowdFunding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9555" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="10545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="70 crowdfunding sites" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="564">
   <si>
     <t>Company</t>
   </si>
@@ -387,10 +387,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Residential&amp; commercial Loan</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.fastfundingservice.com/real/?gclid=Cj0KCQjw1q3VBRCFARIsAPHJXrHuDbdu9q9WH2uGk3Aw70xb-kgTy-M7YWfcW3kGNVzdbPwNXT6390gaAkugEALw_wcB</t>
   </si>
   <si>
@@ -398,18 +394,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raise(No online platform)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential portfolio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>portfolio</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -455,10 +439,6 @@
     <t>minnowcfunding</t>
   </si>
   <si>
-    <t>Commercial raise (multi-family)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://holdfolio.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -467,10 +447,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial&amp;residential raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://smallchange.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -485,14 +461,6 @@
     <t>silverportalcapital</t>
   </si>
   <si>
-    <t>Need to contact for an account</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Advisory(No online registry)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://selequity.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -508,10 +476,6 @@
     <t>richuncles</t>
   </si>
   <si>
-    <t>?(need verify)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.reamerge.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -519,10 +483,6 @@
     <t>reamerge</t>
   </si>
   <si>
-    <t>Residential&amp; commercial raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ifundre.net/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -560,10 +520,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>No offers yet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://ourst.co/</t>
   </si>
   <si>
@@ -579,18 +535,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>raise(open to non accredited investors)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://massventure.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>?(not safe, might be fraud)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://loquidity.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -599,10 +547,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial raise(hotels)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://hotelinnvestor.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -618,10 +562,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>No business yet</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://homefunded.com/index.php</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -645,10 +585,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>raise(various industry)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.equitynet.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -657,10 +593,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial raise, commercial portfolio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>portfolio&amp;raise</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -673,10 +605,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Residential&amp;commercial loan</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>loan</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -697,10 +625,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>mixed portfolio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.crowdventure.com/</t>
   </si>
   <si>
@@ -708,14 +632,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Residential raise, mixed loan</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raise(online), loan(not online)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://crowdtrustdeed.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -723,10 +639,6 @@
     <t>crowdtrustdeed</t>
   </si>
   <si>
-    <t>Commercial&amp;residential raise(needs verify)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://crowdfund.co/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -750,10 +662,6 @@
     <t>creativeequitygroup</t>
   </si>
   <si>
-    <t>loan&amp;raise(not in U.S.)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://coassets.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -769,10 +677,6 @@
     <t>cadre</t>
   </si>
   <si>
-    <t>Residential&amp;commercial raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://blockshares.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -781,14 +685,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial&amp;residential loan, commercial&amp;residential raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan&amp;raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://blackhawkcorp.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -797,10 +693,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>? ( can't create account, website might not be available anymore)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://americancolonialcapital.com/index.html</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -809,10 +701,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>commercial raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.fullcapitalstack.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -820,10 +708,6 @@
     <t>fullcapitalstack</t>
   </si>
   <si>
-    <t>investor mgmt&amp;crowd funding software (for real estate)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>software</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -836,10 +720,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>mixed portfolio (different plans)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://fundrise.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -848,10 +728,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial raise,commercial portfolio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.acquirerealestate.com/</t>
   </si>
   <si>
@@ -867,10 +743,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Residential raise(PRIMO)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.incomeand.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -887,10 +759,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>residential port, Commercial&amp;residential raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.peerrealty.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -913,10 +781,6 @@
     <t>instalend</t>
   </si>
   <si>
-    <t>Auto managed portfolio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.alphaflow.com/</t>
   </si>
   <si>
@@ -930,10 +794,6 @@
     <t>prodigynetwork</t>
   </si>
   <si>
-    <t>Residential&amp;Commercial loan, ?raise(need verify)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.lendinghome.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -952,24 +812,12 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>raise&amp;loan&amp;portfolio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.realtymogul.com/</t>
   </si>
   <si>
     <t>realtymogul</t>
   </si>
   <si>
-    <t>Commercial port, Commercial raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">portfolio&amp;raise, </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.equitymultiple.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -986,10 +834,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Residential&amp;Commercial loan,Residential&amp;Commercial raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>raise&amp;loan</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1013,10 +857,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Residential raise, commercial raise</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.sharestates.com/home/index2?utm_expid=96242454-0.sPZ5Ao9WRPGs5jVIaFFQqA.1</t>
   </si>
   <si>
@@ -1036,10 +876,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial raise (international, big hotels)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.carltoncrowdfund.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1101,23 +937,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Commercial raise, Commercial loan</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>raise&amp;loan to both individuals and institutions</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.realtyshares.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RealtyShares</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Residential raise, commercial raise,commercial port</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1571,7 +1395,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1641,7 +1465,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1760,10 +1584,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>commercial raise</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.therealestatecrowdfundingreview.com/top-14-nonaccredited-realestate</t>
   </si>
   <si>
@@ -1777,17 +1597,352 @@
   <si>
     <t>Feature</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital funding(M)</t>
+  </si>
+  <si>
+    <t>pre-fund?</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>disadv</t>
+  </si>
+  <si>
+    <t>Excellent transparency, solid performance record, lowest minimums in the top 25, $26 million in venture capital funding.</t>
+  </si>
+  <si>
+    <t>Fees tend to the high side (dual spreads total .75% - 3.25% versus 1% average), not a lot of volume, many higher LTV loans.</t>
+  </si>
+  <si>
+    <t>Substantial and growing investment volume, no investor fees (unless investing in a fund with underlying fees).</t>
+  </si>
+  <si>
+    <t> Minimums are significantly above industry average at $25,000 (average is $10,000).</t>
+  </si>
+  <si>
+    <t>Low investment volume</t>
+  </si>
+  <si>
+    <t>Low LTV/ARV (after repair value), currently all at or below 65%, excellent transparency, and solid track record,$2M in venture capital funding, pre-funding of all investments.</t>
+  </si>
+  <si>
+    <t>Has core and core plus investments, tax advantages for existing landlords looking for a 1031 exchange, low volatility/high safety income producing investments for buy-and-hold investors, growing in volume substantially</t>
+  </si>
+  <si>
+    <t>Up front fees are very high (5 - 7%) versus 1% average, and embedded fees are very high as well compared to non-1031 investments. $25,000 minimum is high (versus $10,000 average)</t>
+  </si>
+  <si>
+    <t>Substantial investment volume, $1.6 million in venture capital. No extra platform fees charged to investors (although individual funds have fees)</t>
+  </si>
+  <si>
+    <t>Minimums at ($25,000 - $50,000) are significantly above industry average (average is $10,000). Limited bankruptcy protection. </t>
+  </si>
+  <si>
+    <t>Good investment volume (8 open when we looked). Zero investor fees.</t>
+  </si>
+  <si>
+    <t>Extremely high minimum investment of $250,000. No bankruptcy protection terms set up in advance, "...but would be negotiable to include them."</t>
+  </si>
+  <si>
+    <t>Low investment minimum of $1,000</t>
+  </si>
+  <si>
+    <t>Mostly lending in states without a  nonjudicial option,, which means significantly more expensive and time-consuming foreclosures..</t>
+  </si>
+  <si>
+    <t>$13.25M in venture capital funding, extremely low fee of 0.5%  (discounted to $99 for the first investment), and enormous volume (73 open investments when we looked). </t>
+  </si>
+  <si>
+    <t>High minimum investment of $55,000 (or $20,000 if taking on a loan) with many requiring more, you don't share the investment with anyone else, yields are not as high as a knowledgeable investor can obtain if they are local to a solid market.</t>
+  </si>
+  <si>
+    <t>Minimum requirements:</t>
+  </si>
+  <si>
+    <t>Functional site: site is live and operational for business (versus in beta). Site cannot look homemade or unprofessional.</t>
+  </si>
+  <si>
+    <t>Functional sign-up: site requires password and verifies email address. Can create a user account without any errors.</t>
+  </si>
+  <si>
+    <t>Focuses just on real estate crowdfunding, and isn't a "jack of all trades" site that attempts to do all types of crowdfunding in the same way (meaning that it does real estate poorly).</t>
+  </si>
+  <si>
+    <t>Real online crowdfunding versus broker. "Real" means that the site posts all available investments online, and provides all information on them necessary to invest online (including all due diligence documents, such as leases, appraisals etc.). Broker sites are missing some or all of the above things. They often require interacting with a salesperson, who will attempt to steer you to their preferred investments.</t>
+  </si>
+  <si>
+    <t>Location: all investments must be U.S.-based. (Foreign real estate is more volatile and risky. It is significantly less likely to follow historical U.S. returns, and more difficult to determine proper diversification, etc.).</t>
+  </si>
+  <si>
+    <t>Availability: available to investors in all U.S. states.</t>
+  </si>
+  <si>
+    <t>Not a zombie: has at least one real/open investment, and no investments with detectably fake/sample data.</t>
+  </si>
+  <si>
+    <t>Transparency: allows investors to fully share and critique information on investments  with others. Does not "lawyer up" to prevent information on investments being shared.</t>
+  </si>
+  <si>
+    <t>Minimal selection: at least three available investments in a month.</t>
+  </si>
+  <si>
+    <t>Extra Credit:</t>
+  </si>
+  <si>
+    <t>Company has venture-capital funding.</t>
+  </si>
+  <si>
+    <t>True skin in the game: not just participating in success, but will take a financial loss if investor loss occurs.</t>
+  </si>
+  <si>
+    <t>Bankruptcy protection: predefined investor protection if the site goes bankrupt.</t>
+  </si>
+  <si>
+    <t>Velocity: at least one investment closed in a month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does more than just post other companies' investments. Long-term sustainability of that model is questionable, due to disintermediation after an investor connects with a good sponsor. This is also probably why few companies that do this have received venture capital funding. </t>
+  </si>
+  <si>
+    <t>Copyright 2017, Exhedra Solutions Inc.. All rights reserved. No part of this information may be reproduced without explicit permission.</t>
+  </si>
+  <si>
+    <t>Disclaimer: I believe all the data in the spreadsheet is correct, but it's possible it could contain errors. If you belong to one of the companies involved and find an error, please let me know so it can be corrected. All non-data, including rankings, summaries of investor interviews, and site impressions are my opinion. I am not a registered financial advisor, legal attorney, or accountant. When making financial decisions, be sure to consult with your own registered professionals before proceeding.</t>
+  </si>
+  <si>
+    <t>One of the largest selections of hard money loans in the industry. One of the few platforms offering conservative loans below 65% LTV. Default rate of 1.3% (excluding hurricane damage) is very good. Only platform with a semi-liquidity option and guarantee. Pre-funding and co-investing.</t>
+  </si>
+  <si>
+    <t>Bankruptcy protection does not apply to loans less than one million dollars.</t>
+  </si>
+  <si>
+    <t>High investment volume, diverse asset classes and investment types, very helpful investment filtering by strategy.</t>
+  </si>
+  <si>
+    <t>no bankruptcy protection. Minimums are high ($50k-$250k versus industry average of $10k).</t>
+  </si>
+  <si>
+    <t>Co-invests in every investment. Excellent transparency.</t>
+  </si>
+  <si>
+    <t>$45.1 million in venture capital funding.</t>
+  </si>
+  <si>
+    <t>inadequate volume for accredited investors. Some investments require up to a $50,000 minimum, which is far above the industry average. Investor fees are on the high side, at 1 to 2% ( is 1%). </t>
+  </si>
+  <si>
+    <t>Pre-funding, very low $25 minimum investment, decent investment volume (6 versus average of 1)</t>
+  </si>
+  <si>
+    <t>unpolished website. Bankruptcy protection may not be in place. Fees are 5% plus of property management fee.</t>
+  </si>
+  <si>
+    <t>excellent volume (18 open investments when we sampled them), by far the largest amount of funding of any site in the industry ($110 million), prefunding of investments, and bankruptcy protection.</t>
+  </si>
+  <si>
+    <t>No addresses are supplied of the property, which makes it impossible to do proper due diligence. Loan to value ratios were all over 65%, which in our opinion is too high if there is a foreclosure. Uncured default rate above 2% is twice as high as best-of-breed competitors. Only site to charge an additional 1.15% - 2% "incentive fee".  Average minimum investment of $2500, however a larger than average $50,000 is required to open an account.</t>
+  </si>
+  <si>
+    <t>Difficult to assess due to lack of cooperation by the site.</t>
+  </si>
+  <si>
+    <t>Minimums are high at $25,000 (versus $10,000 average). Significant lack of transparency by not answering repeated emails.</t>
+  </si>
+  <si>
+    <t>Highest investment volume, most diverse asset classes and investment types, low minimums ($1k - $5k versus $10k average), superior bankruptcy protection, $60 million in venture capital.</t>
+  </si>
+  <si>
+    <t>Fees are a bit on the high side (from 1 to 2% versus a 1% average).</t>
+  </si>
+  <si>
+    <t>Diversification into 75-100 notes, Registered Investment Advisor with fiduciary duty to look out after clients, reasonable fees, impressive technical and legal technology, CEO Ray Strum is one of the most personable and transparent in the industry.</t>
+  </si>
+  <si>
+    <t>Significantly higher risk benchmarks  (uncured defaults, LTVs) than best-of-breed competitors. No ability to choose nonjudicial states only. No expedited liquidity option like funds. Bankruptcy remote protection is not yet fully set up (no backup administrator). No skin in the game.</t>
+  </si>
+  <si>
+    <t>Above average investment volume.</t>
+  </si>
+  <si>
+    <t>Some minimums are outrageously high, ranging from $5,000 - $125,000 (average is $10,000). Also, they stopped responding to our questions for information, so we couldn't get definitive information on fees, pre-funding, etc.</t>
+  </si>
+  <si>
+    <t>Lower minimums at $5000 (versus $10,000 average). Strong bankruptcy protection (backup administrator).</t>
+  </si>
+  <si>
+    <t>Due diligence package is not as complete as the top-tier competitors.</t>
+  </si>
+  <si>
+    <t>Fees are very high (as detailed above), $10,000 to $50,000 minimum is high (versus $10,000 average), and currently 1 open investments.</t>
+  </si>
+  <si>
+    <t>Very low minimum of $100.</t>
+  </si>
+  <si>
+    <t>No contractually set backup administrator for bankruptcy protection. No way to do due diligence on the investments and have to rely on proprietary ratings that have no history.</t>
+  </si>
+  <si>
+    <t>Increasing LTVs, alleged reports of much higher than industry level defaults, decreasing yields, alleged customer service reporting issues, perhaps  inappropriate behavior by advisory board member, and turmoil last year with mass layoffs.</t>
+  </si>
+  <si>
+    <t>Pre-funding,  $23.6 million in venture capital funding, superior bankruptcy protection.</t>
+  </si>
+  <si>
+    <t>core and core plus investments, investor protection with investing, pre-funding, ultralow minimums ($2500 versus $10,000 average), good investment volume, $6 million of venture capital.</t>
+  </si>
+  <si>
+    <t>Fees are expensive (1.7% - 3% on a successful five year investment; more for a shorter and less for a longer period) versus 1% average.This fee is paid on top of the fees the investor must pay to the underlying sponsor as well. Also, limited bankruptcy protection.</t>
+  </si>
+  <si>
+    <t>Mammoth fees, substantial investor dilution, and in our opinion, dangerously misleading marketing.</t>
+  </si>
+  <si>
+    <t>Wide variety of investments.</t>
+  </si>
+  <si>
+    <t>We feel the site needs a makeover to give it a more professional feel. Customer support never responded to several questions. </t>
+  </si>
+  <si>
+    <t>Variety of investments.</t>
+  </si>
+  <si>
+    <t>No due diligence qualifying of sponsors/investments. Minimums are high at $25,000 (versus $10,000 average). </t>
+  </si>
+  <si>
+    <t>Difficult to assess.</t>
+  </si>
+  <si>
+    <t>Access to residential real estate equity, some bankruptcy protection, no fees (on direct investments only. Funds have underlying fees).</t>
+  </si>
+  <si>
+    <t>transparency issues:DiversyFund would not reveal their sponsor fees. </t>
+  </si>
+  <si>
+    <t>implements a difficult to find core-plus strategy, conservative leverage, seems to be achieving benchmark, good diversification, typical to excellent fee structure in most areas.</t>
+  </si>
+  <si>
+    <t>Not all nonaccredited investors will qualify. Higher than usual minimum investment ($2500 versus $1000 average), Charges a promote fee via up preferred return and waterfall (5% preferred  return, 75.5% investor/12.5% sponsor split with high watermark) compared to many competitors that don't.</t>
+  </si>
+  <si>
+    <t>Very experienced sponsor, lowest fees among nonaccredited investor offerings.</t>
+  </si>
+  <si>
+    <t>No bankruptcy protection</t>
+  </si>
+  <si>
+    <r>
+      <t>Transparency issues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Last year, the company was very quick to respond to questions.  This year, we have reached out numerous times about questions about this fund (not concerning the SEC). For whatever reason, none of those emails have been responded to (let alone answered).</t>
+    </r>
+  </si>
+  <si>
+    <t>numerous impressive features.</t>
+  </si>
+  <si>
+    <t>Non accredited?</t>
+  </si>
+  <si>
+    <t>raise&amp;loan</t>
+  </si>
+  <si>
+    <t>portfolio&amp;raise</t>
+  </si>
+  <si>
+    <t>portfolio&amp;raise&amp;loan</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>Advisory</t>
+  </si>
+  <si>
+    <t>other features</t>
+  </si>
+  <si>
+    <t>Commercial port,commercial raise,residential raise</t>
+  </si>
+  <si>
+    <t>Commercial raise, commercial loan</t>
+  </si>
+  <si>
+    <t>Commercial raise</t>
+  </si>
+  <si>
+    <t>Commercial port, commercial raise</t>
+  </si>
+  <si>
+    <t>Commercial&amp;residential raise,commercial&amp;residential loan</t>
+  </si>
+  <si>
+    <t>Commercial port,residential port</t>
+  </si>
+  <si>
+    <t>Residential port, Commercial&amp;residential raise</t>
+  </si>
+  <si>
+    <t>Residential raise</t>
+  </si>
+  <si>
+    <t>Commercial port,commercial raise</t>
+  </si>
+  <si>
+    <t>Investor mgmt&amp;crowd funding software (for real estate)</t>
+  </si>
+  <si>
+    <t>Residential raise,commercial loan,residential loan</t>
+  </si>
+  <si>
+    <t>Commercial loan,residential loan</t>
+  </si>
+  <si>
+    <t>Residential port</t>
+  </si>
+  <si>
+    <t>Edu,media</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Edu</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1795,7 +1950,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1803,7 +1958,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1811,28 +1966,28 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1841,14 +1996,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1856,7 +2011,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1864,7 +2019,7 @@
     <font>
       <sz val="12"/>
       <color theme="2"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1872,7 +2027,7 @@
       <b/>
       <sz val="12"/>
       <color theme="2"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1892,7 +2047,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1905,7 +2060,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1913,7 +2068,7 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1921,7 +2076,7 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1929,7 +2084,7 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1937,7 +2092,7 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1945,10 +2100,39 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2146,7 +2330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2322,6 +2506,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2638,1033 +2827,1890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="55.375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="18.3125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.0625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.8125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="7">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G10" s="7">
+        <v>250000</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="7">
+        <v>13.25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G13" s="7">
+        <v>55000</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="K14" s="61" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G15" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J15" s="61" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="K15" s="61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>502</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45.1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G18" s="7">
+        <v>25</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E19" s="7">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>509</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>513</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>513</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>517</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G25" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G26" s="7">
+        <v>100</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>520</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E28" s="7">
+        <v>6</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G28" s="7">
+        <v>2500</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E29" s="7">
+        <v>35</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" s="7">
+        <v>500</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>527</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G31" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J31" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G33" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G40" s="7">
+        <v>30000</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G41" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G44" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G46" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="7">
+        <v>10</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="7">
+        <v>45000</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G50" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="7">
+        <v>500</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="7">
+        <v>500</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J61" s="61" t="s">
+        <v>539</v>
+      </c>
+      <c r="K61" s="65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" s="7">
+        <v>500</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G65" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="C67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G67" s="7">
+        <v>100</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="60" t="s">
+      <c r="D68" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J68" s="61" t="s">
+        <v>536</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G69" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="60" t="s">
-        <v>498</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D70" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>558</v>
+      </c>
+      <c r="G70" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="55" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>549</v>
+      </c>
+      <c r="G71" s="7">
+        <v>2500</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J71" s="61" t="s">
+        <v>534</v>
+      </c>
+      <c r="K71" s="61" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:11">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:11">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:11">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:11">
       <c r="B76" s="9"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="55" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>116</v>
@@ -3675,39 +4721,39 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="56" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="57" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="58" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="60" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="7" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="D81" r:id="rId2"/>
     <hyperlink ref="B20" r:id="rId3"/>
     <hyperlink ref="B22" r:id="rId4"/>
@@ -3741,10 +4787,10 @@
     <hyperlink ref="B64" r:id="rId32"/>
     <hyperlink ref="B68" r:id="rId33"/>
     <hyperlink ref="B69" r:id="rId34"/>
-    <hyperlink ref="B2" r:id="rId35"/>
-    <hyperlink ref="B3" r:id="rId36"/>
-    <hyperlink ref="B5" r:id="rId37"/>
-    <hyperlink ref="B9" r:id="rId38"/>
+    <hyperlink ref="B7" r:id="rId35"/>
+    <hyperlink ref="B8" r:id="rId36"/>
+    <hyperlink ref="B9" r:id="rId37"/>
+    <hyperlink ref="B6" r:id="rId38"/>
     <hyperlink ref="B10" r:id="rId39"/>
     <hyperlink ref="B11" r:id="rId40"/>
     <hyperlink ref="B13" r:id="rId41"/>
@@ -3774,18 +4820,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="63" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="63"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="63" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="63" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="63" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="63"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="63" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="63" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="63" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="64" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3825,7 +4973,7 @@
     <col min="19" max="16384" width="10.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="18" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:18" s="18" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="B1" s="19"/>
       <c r="C1" s="54"/>
       <c r="D1" s="53"/>
@@ -3842,620 +4990,620 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="36"/>
     </row>
-    <row r="2" spans="1:18" s="38" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:18" s="38" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A2" s="46"/>
       <c r="B2" s="45" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="45" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="44" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="J2" s="43"/>
       <c r="K2" s="45" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="N2" s="43"/>
       <c r="O2" s="42" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="40" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="R2" s="39"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="64" t="s">
-        <v>477</v>
+      <c r="A3" s="69" t="s">
+        <v>433</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="78.75">
-      <c r="A4" s="65"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="94.5">
+      <c r="A4" s="70"/>
       <c r="B4" s="17" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="31.5">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="17" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="31.5">
-      <c r="A6" s="65"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="17" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="31.5">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="17" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="65"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="17" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="65"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="17" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="65"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="17" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="L10" s="18"/>
       <c r="O10" s="14" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="20" customFormat="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="27" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K11" s="27"/>
       <c r="M11" s="26"/>
       <c r="N11" s="25"/>
       <c r="O11" s="24" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="67" t="s">
-        <v>410</v>
+      <c r="A12" s="72" t="s">
+        <v>366</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="31.5">
-      <c r="A13" s="65"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="17" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="65"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="17" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="65"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="17" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="65"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="17" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="65"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="17" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="20" customFormat="1" ht="63">
-      <c r="A18" s="66"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="27" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="27" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="26" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="27" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="24"/>
@@ -4464,416 +5612,416 @@
       <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="67" t="s">
-        <v>381</v>
+      <c r="A19" s="72" t="s">
+        <v>337</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="70"/>
+      <c r="B20" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="70"/>
+      <c r="B21" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="70"/>
+      <c r="B22" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="65"/>
-      <c r="B20" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="65"/>
-      <c r="B21" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="65"/>
-      <c r="B22" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>357</v>
-      </c>
       <c r="H22" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="65"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="17" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="65"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="17" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="65"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="19" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="J25" s="50" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="N25" s="50" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="47"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:18" ht="16.149999999999999" thickBot="1">
+      <c r="A26" s="73"/>
       <c r="B26" s="19" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="48"/>
       <c r="R26" s="47"/>
     </row>
-    <row r="27" spans="1:18" s="38" customFormat="1" ht="16.5" thickBot="1">
+    <row r="27" spans="1:18" s="38" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A27" s="46"/>
       <c r="B27" s="45" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="C27" s="44" t="str">
         <f>C2</f>
@@ -4904,22 +6052,22 @@
       </c>
       <c r="N27" s="43"/>
       <c r="O27" s="42" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
     </row>
     <row r="28" spans="1:18" s="18" customFormat="1">
-      <c r="A28" s="69" t="s">
-        <v>345</v>
+      <c r="A28" s="74" t="s">
+        <v>301</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E28" s="19"/>
       <c r="G28" s="16"/>
@@ -4935,13 +6083,13 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" s="18" customFormat="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="37" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E29" s="19"/>
       <c r="G29" s="16"/>
@@ -4957,32 +6105,32 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" s="18" customFormat="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="37" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="16" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="19" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" s="30"/>
@@ -4991,13 +6139,13 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" s="18" customFormat="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="37" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="E31" s="19"/>
       <c r="G31" s="16"/>
@@ -5013,12 +6161,12 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="62"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="29" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="18"/>
@@ -5026,12 +6174,12 @@
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="62"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="29" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="18"/>
@@ -5039,12 +6187,12 @@
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="62"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="29" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="18"/>
@@ -5052,13 +6200,13 @@
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:18" s="20" customFormat="1">
-      <c r="A35" s="63"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="35" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="25" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="E35" s="34"/>
       <c r="G35" s="33"/>
@@ -5074,11 +6222,11 @@
       <c r="R35" s="21"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="61" t="s">
-        <v>329</v>
+      <c r="A36" s="66" t="s">
+        <v>285</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="K36" s="19"/>
       <c r="L36" s="18"/>
@@ -5086,9 +6234,9 @@
       <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="62"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="19" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="18"/>
@@ -5096,19 +6244,19 @@
       <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="62"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="19" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="18"/>
       <c r="O38" s="30"/>
       <c r="P38" s="11"/>
     </row>
-    <row r="39" spans="1:18" s="20" customFormat="1" ht="47.25">
-      <c r="A39" s="63"/>
+    <row r="39" spans="1:18" s="20" customFormat="1" ht="63">
+      <c r="A39" s="68"/>
       <c r="B39" s="27" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="25"/>
@@ -5126,116 +6274,116 @@
       <c r="R39" s="21"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="61" t="s">
-        <v>324</v>
+      <c r="A40" s="66" t="s">
+        <v>280</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="18"/>
       <c r="O40" s="30" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="31.5">
-      <c r="A41" s="62"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="29" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="18"/>
       <c r="O41" s="30" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="62"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="29" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="18"/>
       <c r="O42" s="30" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="62"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="29" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="18"/>
       <c r="O43" s="30" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="62"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="29" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="20" customFormat="1">
-      <c r="A45" s="63"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="28" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="25" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="E45" s="27"/>
       <c r="G45" s="26"/>
@@ -5280,11 +6428,11 @@
     <col min="4" max="4" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20.25">
-      <c r="C2" s="70" t="s">
+    <row r="2" spans="2:4" ht="21">
+      <c r="C2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="70"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="4" spans="2:4" s="2" customFormat="1">
       <c r="B4" s="1">
@@ -5526,11 +6674,11 @@
     <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="20.25">
-      <c r="E2" s="70" t="s">
+    <row r="2" spans="4:6" ht="21">
+      <c r="E2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="4" spans="4:6">
       <c r="D4" s="4">
@@ -5859,11 +7007,11 @@
     <col min="5" max="5" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" ht="20.25">
-      <c r="D2" s="70" t="s">
+    <row r="2" spans="3:5" ht="21">
+      <c r="D2" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="70"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="4">
